--- a/input/eitc_municipal_2022.xlsx
+++ b/input/eitc_municipal_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/Repos/Espacios-Abiertos/eitc-tableau/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F37DD8E-86CC-D847-90B1-2C818EA5715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34854EF4-B07F-544D-8447-C3B8A37C1FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-28300" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eitc_municipal_2022" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Municipios</t>
   </si>
@@ -343,6 +343,12 @@
   <si>
     <t>Crédito por Trabajo - Total</t>
   </si>
+  <si>
+    <t>Planillas Total - Crédito por Trabajo</t>
+  </si>
+  <si>
+    <t>Crédito por Trabajo - Promedio</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +399,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
@@ -480,35 +492,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:Y316" totalsRowShown="0">
-  <autoFilter ref="A1:Y316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:AA316" totalsRowShown="0">
+  <autoFilter ref="A1:AA316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Municipios"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Año contributivo" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingreso Bruto Ajustado - Casados" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Planillas - Ingreso Bruto Ajustado - Casados" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ingreso Bruto Ajustado - Contribuyente Individual" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Planillas - Ingreso Bruto Ajustado - Contribuyente Individual" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Casados - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Planillas Casados - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Contribuyente Individual - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Planillas Contribuyente Individual - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Anejo CT: Ingresos Salarios" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Planillas - Anejo CT: Ingresos Salarios" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Anejo CT: Ingresos Pensión" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Planillas - Anejo CT: Ingresos Pensión" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Anejo CT: Ingresos Industria o Negocio" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Planillas - Anejo CT: Ingresos Industria o Negocio" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Anejo CT Total ingreso Bruto Ganado" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Planillas - Anejo CT Total ingreso Bruto Ganado" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Crédito por Trabajo - Casados" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Planillas Casados - Crédito por Trabajo" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Crédito por Trabajo - Contribuyente Individual" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Planillas Contribuyente Individual - Crédito por Trabajo" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Anejo CT Cantidad de dependientes cualificados" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Planillas - Anejo CT Cantidad de dependientes cualificados" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{CB6A0C06-0A48-E04D-82B1-1291774DFC02}" name="Crédito por Trabajo - Total" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Año contributivo" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingreso Bruto Ajustado - Casados" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Planillas - Ingreso Bruto Ajustado - Casados" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ingreso Bruto Ajustado - Contribuyente Individual" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Planillas - Ingreso Bruto Ajustado - Contribuyente Individual" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Casados - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Planillas Casados - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Contribuyente Individual - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Planillas Contribuyente Individual - Total Ingreso bruto ganado para la determinación del EITC" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Anejo CT: Ingresos Salarios" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Planillas - Anejo CT: Ingresos Salarios" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Anejo CT: Ingresos Pensión" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Planillas - Anejo CT: Ingresos Pensión" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Anejo CT: Ingresos Industria o Negocio" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Planillas - Anejo CT: Ingresos Industria o Negocio" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Anejo CT Total ingreso Bruto Ganado" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Planillas - Anejo CT Total ingreso Bruto Ganado" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Crédito por Trabajo - Casados" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Planillas Casados - Crédito por Trabajo" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Crédito por Trabajo - Contribuyente Individual" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Planillas Contribuyente Individual - Crédito por Trabajo" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Anejo CT Cantidad de dependientes cualificados" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Planillas - Anejo CT Cantidad de dependientes cualificados" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{CB6A0C06-0A48-E04D-82B1-1291774DFC02}" name="Crédito por Trabajo - Total" dataDxfId="2">
       <calculatedColumnFormula>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{93EBFAF0-8214-7A41-A7F9-9545621D3467}" name="Planillas Total - Crédito por Trabajo" dataDxfId="1">
+      <calculatedColumnFormula>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{ED622348-8F87-9144-882F-856E882876C5}" name="Crédito por Trabajo - Promedio" dataDxfId="0">
+      <calculatedColumnFormula>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -802,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y316"/>
+  <dimension ref="A1:AA316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="Z79" sqref="Z79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +831,7 @@
     <col min="25" max="25" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +907,14 @@
       <c r="Y1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -967,8 +991,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>6559140</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3681</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1781.8907905460474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1045,8 +1077,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13266656</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7610</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1743.318791064389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1123,8 +1163,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>17510297</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>9918</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1765.5068562210124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1201,8 +1249,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7661366</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4354</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1759.6155259531465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1279,8 +1335,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>8648065</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4973</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1739.0036195455459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1357,8 +1421,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>9095991</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5274</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1724.6854379977246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1435,8 +1507,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>28174885</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>16409</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1717.038515448839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1513,8 +1593,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>5643255</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3165</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1783.0189573459716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1591,8 +1679,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7951571</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4443</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1789.6851226648662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1669,8 +1765,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10872387</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5767</v>
+      </c>
+      <c r="AA11" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1885.2760534073175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1747,8 +1851,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>55881470</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>33954</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1645.7993167226248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1825,8 +1937,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13889414</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>8150</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1704.2225766871165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +2023,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>38692657</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>22954</v>
+      </c>
+      <c r="AA14" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1685.660756295199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1981,8 +2109,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>11010358</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6028</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1826.5358327803583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2059,8 +2195,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>14946015</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>8599</v>
+      </c>
+      <c r="AA16" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1738.1108268403302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2137,8 +2281,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>45652663</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>28016</v>
+      </c>
+      <c r="AA17" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1629.521095088521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2215,8 +2367,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7655629</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4238</v>
+      </c>
+      <c r="AA18" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1806.4249646059461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2293,8 +2453,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>14885262</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>8435</v>
+      </c>
+      <c r="AA19" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1764.7020746887968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2371,8 +2539,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>3916679</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>2190</v>
+      </c>
+      <c r="AA20" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1788.437899543379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2449,8 +2625,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>6459165</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3389</v>
+      </c>
+      <c r="AA21" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1905.9206255532606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2527,8 +2711,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>12233739</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6983</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1751.931691250179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -2605,8 +2797,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>11861365</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6549</v>
+      </c>
+      <c r="AA23" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1811.1719346465109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2683,8 +2883,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>6126330</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3319</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1845.8360952094004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2761,8 +2969,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13023245</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6836</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1905.097279110591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2839,8 +3055,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>462461</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>259</v>
+      </c>
+      <c r="AA26" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1785.5637065637065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2917,8 +3141,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>9842878</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5641</v>
+      </c>
+      <c r="AA27" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1744.881758553448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -2995,8 +3227,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10750083</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6187</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1737.527557782447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,8 +3313,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>5620128</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>2962</v>
+      </c>
+      <c r="AA29" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1897.4098582039162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3151,8 +3399,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>4986332</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>2735</v>
+      </c>
+      <c r="AA30" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1823.1561243144424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -3229,8 +3485,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13332054</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7481</v>
+      </c>
+      <c r="AA31" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1782.1219088357172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -3307,8 +3571,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>6618599</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3685</v>
+      </c>
+      <c r="AA32" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1796.0919945725916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -3385,8 +3657,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>19327828</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>12206</v>
+      </c>
+      <c r="AA33" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1583.4694412583974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -3463,8 +3743,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>11242876</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6571</v>
+      </c>
+      <c r="AA34" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1710.9840206970021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -3541,8 +3829,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>11112798</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6244</v>
+      </c>
+      <c r="AA35" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1779.7562459961564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3619,8 +3915,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>5492807</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3322</v>
+      </c>
+      <c r="AA36" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1653.4638771824202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -3697,8 +4001,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>16903196</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>9575</v>
+      </c>
+      <c r="AA37" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1765.3468407310704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +4087,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13577867</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7665</v>
+      </c>
+      <c r="AA38" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1771.4112198303978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3853,8 +4173,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>5790750</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3238</v>
+      </c>
+      <c r="AA39" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1788.372452130945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -3931,8 +4259,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>15322837</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>8520</v>
+      </c>
+      <c r="AA40" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1798.4550469483568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -4009,8 +4345,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>11785063</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6549</v>
+      </c>
+      <c r="AA41" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1799.5209955718431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4087,8 +4431,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7878345</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4431</v>
+      </c>
+      <c r="AA42" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1778.0060934326336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -4165,8 +4517,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10082742</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5547</v>
+      </c>
+      <c r="AA43" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1817.6928069226608</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -4243,8 +4603,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>3483150</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>1860</v>
+      </c>
+      <c r="AA44" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1872.6612903225807</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -4321,8 +4689,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10909744</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6112</v>
+      </c>
+      <c r="AA45" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1784.9712041884816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -4399,8 +4775,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7345240</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4051</v>
+      </c>
+      <c r="AA46" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1813.1918044927179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,8 +4861,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>4990133</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>2933</v>
+      </c>
+      <c r="AA47" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1701.3750426184795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -4555,8 +4947,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>12935538</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7151</v>
+      </c>
+      <c r="AA48" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1808.9131589987414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -4633,8 +5033,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>2227618</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>1246</v>
+      </c>
+      <c r="AA49" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1787.8154093097912</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
@@ -4711,8 +5119,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>3638443</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>2104</v>
+      </c>
+      <c r="AA50" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1729.2980038022813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -4789,8 +5205,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>23393462</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>13443</v>
+      </c>
+      <c r="AA51" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1740.1965335118648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -4867,8 +5291,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13570982</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7423</v>
+      </c>
+      <c r="AA52" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1828.2341371413174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -4945,8 +5377,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10347099</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5490</v>
+      </c>
+      <c r="AA53" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1884.7174863387979</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
@@ -5023,8 +5463,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7912707</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4223</v>
+      </c>
+      <c r="AA54" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1873.7170258110348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -5101,8 +5549,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10517803</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5715</v>
+      </c>
+      <c r="AA55" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1840.3854768153981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
@@ -5179,8 +5635,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>8014681</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4241</v>
+      </c>
+      <c r="AA56" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1889.8092431030418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -5257,8 +5721,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>5323640</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3022</v>
+      </c>
+      <c r="AA57" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1761.6280608868299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -5335,8 +5807,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>8151862</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4349</v>
+      </c>
+      <c r="AA58" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1874.4221660151759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -5413,8 +5893,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>49716341</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>27899</v>
+      </c>
+      <c r="AA59" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1782.0115774758951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -5491,8 +5979,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>8896459</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4958</v>
+      </c>
+      <c r="AA60" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1794.3644614764019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -5569,8 +6065,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>4374602</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>2552</v>
+      </c>
+      <c r="AA61" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1714.185736677116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -5647,8 +6151,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>15602951</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>9018</v>
+      </c>
+      <c r="AA62" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1730.20082058106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
@@ -5725,8 +6237,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>8043182</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4476</v>
+      </c>
+      <c r="AA63" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1796.9575513851653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -5803,8 +6323,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>6594536</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3780</v>
+      </c>
+      <c r="AA64" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1744.5862433862435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -5881,8 +6409,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10044384</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5729</v>
+      </c>
+      <c r="AA65" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1753.2525746203526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -5959,8 +6495,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>87804259</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>54746</v>
+      </c>
+      <c r="AA66" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1603.8479340956417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
@@ -6037,8 +6581,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>12060997</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6710</v>
+      </c>
+      <c r="AA67" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1797.4660208643816</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>90</v>
       </c>
@@ -6115,8 +6667,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13802312</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7697</v>
+      </c>
+      <c r="AA68" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1793.2067039106146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -6193,8 +6753,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>7126980</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>3985</v>
+      </c>
+      <c r="AA69" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1788.4516938519448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -6271,8 +6839,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>19438897</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>11272</v>
+      </c>
+      <c r="AA70" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1724.5295422285308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
@@ -6349,8 +6925,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>22977979</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>13830</v>
+      </c>
+      <c r="AA71" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1661.4590744757772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -6427,8 +7011,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>16312013</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>9915</v>
+      </c>
+      <c r="AA72" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1645.1853756933938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>95</v>
       </c>
@@ -6505,8 +7097,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>9069894</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4995</v>
+      </c>
+      <c r="AA73" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1815.7945945945946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -6583,8 +7183,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>11127345</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>6054</v>
+      </c>
+      <c r="AA74" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1838.0153617443013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>97</v>
       </c>
@@ -6661,8 +7269,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>17719780</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>10000</v>
+      </c>
+      <c r="AA75" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1771.9780000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>98</v>
       </c>
@@ -6739,8 +7355,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>1902694</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>1026</v>
+      </c>
+      <c r="AA76" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1854.477582846004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>99</v>
       </c>
@@ -6817,8 +7441,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>9476604</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>4992</v>
+      </c>
+      <c r="AA77" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1898.3581730769231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>100</v>
       </c>
@@ -6895,8 +7527,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>10196331</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z78" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>5653</v>
+      </c>
+      <c r="AA78" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1803.7026357686184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>101</v>
       </c>
@@ -6973,8 +7613,16 @@
         <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
         <v>13147840</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z79" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>7396</v>
+      </c>
+      <c r="AA79" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1777.6960519199567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7000,8 +7648,10 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="3"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7027,8 +7677,10 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7054,8 +7706,10 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7081,8 +7735,10 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7108,8 +7764,10 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="3"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7135,8 +7793,10 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="3"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7162,8 +7822,10 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="3"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7189,8 +7851,10 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="3"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7216,8 +7880,10 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="3"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7243,8 +7909,10 @@
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="3"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7270,8 +7938,10 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7297,8 +7967,10 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="3"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7324,8 +7996,10 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="3"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7351,8 +8025,10 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="3"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7378,8 +8054,10 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="3"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7405,8 +8083,10 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7432,8 +8112,10 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="3"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7459,8 +8141,10 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7486,8 +8170,10 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7513,8 +8199,10 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7540,8 +8228,10 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="3"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7567,8 +8257,10 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="3"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7594,8 +8286,10 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="3"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7621,8 +8315,10 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7648,8 +8344,10 @@
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="3"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7675,8 +8373,10 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="3"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7702,8 +8402,10 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="3"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7729,8 +8431,10 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7756,8 +8460,10 @@
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="3"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7783,8 +8489,10 @@
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="3"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7810,8 +8518,10 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="3"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7837,8 +8547,10 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="3"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7864,8 +8576,10 @@
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7891,8 +8605,10 @@
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="3"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7918,8 +8634,10 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="3"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7945,8 +8663,10 @@
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="3"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7972,8 +8692,10 @@
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="3"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7999,8 +8721,10 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8026,8 +8750,10 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="3"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8053,8 +8779,10 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="3"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8080,8 +8808,10 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="3"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8107,8 +8837,10 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="3"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8134,8 +8866,10 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8161,8 +8895,10 @@
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="3"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8188,8 +8924,10 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="3"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8215,8 +8953,10 @@
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="3"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8242,8 +8982,10 @@
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="3"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8269,8 +9011,10 @@
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="3"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8296,8 +9040,10 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="3"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z128" s="3"/>
+      <c r="AA128" s="3"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8323,8 +9069,10 @@
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="3"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z129" s="3"/>
+      <c r="AA129" s="3"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8350,8 +9098,10 @@
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="3"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8377,8 +9127,10 @@
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8404,8 +9156,10 @@
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="3"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z132" s="3"/>
+      <c r="AA132" s="3"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8431,8 +9185,10 @@
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="3"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8458,8 +9214,10 @@
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8485,8 +9243,10 @@
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z135" s="3"/>
+      <c r="AA135" s="3"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8512,8 +9272,10 @@
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="3"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8539,8 +9301,10 @@
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="3"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8566,8 +9330,10 @@
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="3"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8593,8 +9359,10 @@
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8620,8 +9388,10 @@
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="3"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8647,8 +9417,10 @@
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
       <c r="Y141" s="3"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="3"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8674,8 +9446,10 @@
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="3"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z142" s="3"/>
+      <c r="AA142" s="3"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8701,8 +9475,10 @@
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
       <c r="Y143" s="3"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z143" s="3"/>
+      <c r="AA143" s="3"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8728,8 +9504,10 @@
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="3"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z144" s="3"/>
+      <c r="AA144" s="3"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8755,8 +9533,10 @@
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="3"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8782,8 +9562,10 @@
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="3"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z146" s="3"/>
+      <c r="AA146" s="3"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8809,8 +9591,10 @@
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
       <c r="Y147" s="3"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z147" s="3"/>
+      <c r="AA147" s="3"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8836,8 +9620,10 @@
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8863,8 +9649,10 @@
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="3"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z149" s="3"/>
+      <c r="AA149" s="3"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8890,8 +9678,10 @@
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="3"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z150" s="3"/>
+      <c r="AA150" s="3"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8917,8 +9707,10 @@
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
       <c r="Y151" s="3"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z151" s="3"/>
+      <c r="AA151" s="3"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8944,8 +9736,10 @@
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="3"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z152" s="3"/>
+      <c r="AA152" s="3"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8971,8 +9765,10 @@
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
       <c r="Y153" s="3"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z153" s="3"/>
+      <c r="AA153" s="3"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8998,8 +9794,10 @@
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
       <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9025,8 +9823,10 @@
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
       <c r="Y155" s="3"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z155" s="3"/>
+      <c r="AA155" s="3"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9052,8 +9852,10 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
       <c r="Y156" s="3"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z156" s="3"/>
+      <c r="AA156" s="3"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9079,8 +9881,10 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="3"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z157" s="3"/>
+      <c r="AA157" s="3"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9106,8 +9910,10 @@
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="3"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z158" s="3"/>
+      <c r="AA158" s="3"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9133,8 +9939,10 @@
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
       <c r="Y159" s="3"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z159" s="3"/>
+      <c r="AA159" s="3"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9160,8 +9968,10 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="3"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9187,8 +9997,10 @@
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="3"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9214,8 +10026,10 @@
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
       <c r="Y162" s="3"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9241,8 +10055,10 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="3"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z163" s="3"/>
+      <c r="AA163" s="3"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9268,8 +10084,10 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="3"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9295,8 +10113,10 @@
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
       <c r="Y165" s="3"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z165" s="3"/>
+      <c r="AA165" s="3"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9322,8 +10142,10 @@
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="3"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9349,8 +10171,10 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="3"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z167" s="3"/>
+      <c r="AA167" s="3"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9376,8 +10200,10 @@
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
       <c r="Y168" s="3"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9403,8 +10229,10 @@
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
       <c r="Y169" s="3"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9430,8 +10258,10 @@
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
       <c r="Y170" s="3"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9457,8 +10287,10 @@
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
       <c r="Y171" s="3"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z171" s="3"/>
+      <c r="AA171" s="3"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9484,8 +10316,10 @@
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
       <c r="Y172" s="3"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z172" s="3"/>
+      <c r="AA172" s="3"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9511,8 +10345,10 @@
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
       <c r="Y173" s="3"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z173" s="3"/>
+      <c r="AA173" s="3"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9538,8 +10374,10 @@
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="3"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z174" s="3"/>
+      <c r="AA174" s="3"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9565,8 +10403,10 @@
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
       <c r="Y175" s="3"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z175" s="3"/>
+      <c r="AA175" s="3"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9592,8 +10432,10 @@
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
       <c r="Y176" s="3"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z176" s="3"/>
+      <c r="AA176" s="3"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9619,8 +10461,10 @@
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
       <c r="Y177" s="3"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z177" s="3"/>
+      <c r="AA177" s="3"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9646,8 +10490,10 @@
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
       <c r="Y178" s="3"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z178" s="3"/>
+      <c r="AA178" s="3"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9673,8 +10519,10 @@
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
       <c r="Y179" s="3"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z179" s="3"/>
+      <c r="AA179" s="3"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9700,8 +10548,10 @@
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
       <c r="Y180" s="3"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="3"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9727,8 +10577,10 @@
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
       <c r="Y181" s="3"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z181" s="3"/>
+      <c r="AA181" s="3"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9754,8 +10606,10 @@
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
       <c r="Y182" s="3"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z182" s="3"/>
+      <c r="AA182" s="3"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9781,8 +10635,10 @@
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
       <c r="Y183" s="3"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z183" s="3"/>
+      <c r="AA183" s="3"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9808,8 +10664,10 @@
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
       <c r="Y184" s="3"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z184" s="3"/>
+      <c r="AA184" s="3"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9835,8 +10693,10 @@
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
       <c r="Y185" s="3"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z185" s="3"/>
+      <c r="AA185" s="3"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9862,8 +10722,10 @@
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
       <c r="Y186" s="3"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z186" s="3"/>
+      <c r="AA186" s="3"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9889,8 +10751,10 @@
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
       <c r="Y187" s="3"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z187" s="3"/>
+      <c r="AA187" s="3"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9916,8 +10780,10 @@
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
       <c r="Y188" s="3"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z188" s="3"/>
+      <c r="AA188" s="3"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9943,8 +10809,10 @@
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
       <c r="Y189" s="3"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z189" s="3"/>
+      <c r="AA189" s="3"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9970,8 +10838,10 @@
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
       <c r="Y190" s="3"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z190" s="3"/>
+      <c r="AA190" s="3"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9997,8 +10867,10 @@
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="3"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z191" s="3"/>
+      <c r="AA191" s="3"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10024,8 +10896,10 @@
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="3"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z192" s="3"/>
+      <c r="AA192" s="3"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10051,8 +10925,10 @@
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="3"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z193" s="3"/>
+      <c r="AA193" s="3"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10078,8 +10954,10 @@
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="3"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z194" s="3"/>
+      <c r="AA194" s="3"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10105,8 +10983,10 @@
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="3"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z195" s="3"/>
+      <c r="AA195" s="3"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10132,8 +11012,10 @@
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
       <c r="Y196" s="3"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z196" s="3"/>
+      <c r="AA196" s="3"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10159,8 +11041,10 @@
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
       <c r="Y197" s="3"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z197" s="3"/>
+      <c r="AA197" s="3"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10186,8 +11070,10 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="3"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z198" s="3"/>
+      <c r="AA198" s="3"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10213,8 +11099,10 @@
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
       <c r="Y199" s="3"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z199" s="3"/>
+      <c r="AA199" s="3"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10240,8 +11128,10 @@
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
       <c r="Y200" s="3"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z200" s="3"/>
+      <c r="AA200" s="3"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10267,8 +11157,10 @@
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
       <c r="Y201" s="3"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z201" s="3"/>
+      <c r="AA201" s="3"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10294,8 +11186,10 @@
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
       <c r="Y202" s="3"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z202" s="3"/>
+      <c r="AA202" s="3"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10321,8 +11215,10 @@
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
       <c r="Y203" s="3"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z203" s="3"/>
+      <c r="AA203" s="3"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10348,8 +11244,10 @@
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
       <c r="Y204" s="3"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="3"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10375,8 +11273,10 @@
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
       <c r="Y205" s="3"/>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z205" s="3"/>
+      <c r="AA205" s="3"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10402,8 +11302,10 @@
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
       <c r="Y206" s="3"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z206" s="3"/>
+      <c r="AA206" s="3"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10429,8 +11331,10 @@
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
       <c r="Y207" s="3"/>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z207" s="3"/>
+      <c r="AA207" s="3"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10456,8 +11360,10 @@
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
       <c r="Y208" s="3"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z208" s="3"/>
+      <c r="AA208" s="3"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10483,8 +11389,10 @@
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
       <c r="Y209" s="3"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z209" s="3"/>
+      <c r="AA209" s="3"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10510,8 +11418,10 @@
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
       <c r="Y210" s="3"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z210" s="3"/>
+      <c r="AA210" s="3"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10537,8 +11447,10 @@
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
       <c r="Y211" s="3"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z211" s="3"/>
+      <c r="AA211" s="3"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10564,8 +11476,10 @@
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
       <c r="Y212" s="3"/>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z212" s="3"/>
+      <c r="AA212" s="3"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10591,8 +11505,10 @@
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
       <c r="Y213" s="3"/>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z213" s="3"/>
+      <c r="AA213" s="3"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10618,8 +11534,10 @@
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
       <c r="Y214" s="3"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z214" s="3"/>
+      <c r="AA214" s="3"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10645,8 +11563,10 @@
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
       <c r="Y215" s="3"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z215" s="3"/>
+      <c r="AA215" s="3"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10672,8 +11592,10 @@
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
       <c r="Y216" s="3"/>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z216" s="3"/>
+      <c r="AA216" s="3"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10699,8 +11621,10 @@
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
       <c r="Y217" s="3"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z217" s="3"/>
+      <c r="AA217" s="3"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -10726,8 +11650,10 @@
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
       <c r="Y218" s="3"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z218" s="3"/>
+      <c r="AA218" s="3"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -10753,8 +11679,10 @@
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
       <c r="Y219" s="3"/>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z219" s="3"/>
+      <c r="AA219" s="3"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -10780,8 +11708,10 @@
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
       <c r="Y220" s="3"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z220" s="3"/>
+      <c r="AA220" s="3"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -10807,8 +11737,10 @@
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
       <c r="Y221" s="3"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z221" s="3"/>
+      <c r="AA221" s="3"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -10834,8 +11766,10 @@
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
       <c r="Y222" s="3"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z222" s="3"/>
+      <c r="AA222" s="3"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -10861,8 +11795,10 @@
       <c r="W223" s="2"/>
       <c r="X223" s="2"/>
       <c r="Y223" s="3"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z223" s="3"/>
+      <c r="AA223" s="3"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -10888,8 +11824,10 @@
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
       <c r="Y224" s="3"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z224" s="3"/>
+      <c r="AA224" s="3"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -10915,8 +11853,10 @@
       <c r="W225" s="2"/>
       <c r="X225" s="2"/>
       <c r="Y225" s="3"/>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z225" s="3"/>
+      <c r="AA225" s="3"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -10942,8 +11882,10 @@
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
       <c r="Y226" s="3"/>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z226" s="3"/>
+      <c r="AA226" s="3"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -10969,8 +11911,10 @@
       <c r="W227" s="2"/>
       <c r="X227" s="2"/>
       <c r="Y227" s="3"/>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z227" s="3"/>
+      <c r="AA227" s="3"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -10996,8 +11940,10 @@
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
       <c r="Y228" s="3"/>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z228" s="3"/>
+      <c r="AA228" s="3"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11023,8 +11969,10 @@
       <c r="W229" s="2"/>
       <c r="X229" s="2"/>
       <c r="Y229" s="3"/>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z229" s="3"/>
+      <c r="AA229" s="3"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11050,8 +11998,10 @@
       <c r="W230" s="2"/>
       <c r="X230" s="2"/>
       <c r="Y230" s="3"/>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z230" s="3"/>
+      <c r="AA230" s="3"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11077,8 +12027,10 @@
       <c r="W231" s="2"/>
       <c r="X231" s="2"/>
       <c r="Y231" s="3"/>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z231" s="3"/>
+      <c r="AA231" s="3"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11104,8 +12056,10 @@
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
       <c r="Y232" s="3"/>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z232" s="3"/>
+      <c r="AA232" s="3"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11131,8 +12085,10 @@
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
       <c r="Y233" s="3"/>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z233" s="3"/>
+      <c r="AA233" s="3"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11158,8 +12114,10 @@
       <c r="W234" s="2"/>
       <c r="X234" s="2"/>
       <c r="Y234" s="3"/>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z234" s="3"/>
+      <c r="AA234" s="3"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11185,8 +12143,10 @@
       <c r="W235" s="2"/>
       <c r="X235" s="2"/>
       <c r="Y235" s="3"/>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z235" s="3"/>
+      <c r="AA235" s="3"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11212,8 +12172,10 @@
       <c r="W236" s="2"/>
       <c r="X236" s="2"/>
       <c r="Y236" s="3"/>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z236" s="3"/>
+      <c r="AA236" s="3"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11239,8 +12201,10 @@
       <c r="W237" s="2"/>
       <c r="X237" s="2"/>
       <c r="Y237" s="3"/>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z237" s="3"/>
+      <c r="AA237" s="3"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11266,8 +12230,10 @@
       <c r="W238" s="2"/>
       <c r="X238" s="2"/>
       <c r="Y238" s="3"/>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z238" s="3"/>
+      <c r="AA238" s="3"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -11293,8 +12259,10 @@
       <c r="W239" s="2"/>
       <c r="X239" s="2"/>
       <c r="Y239" s="3"/>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z239" s="3"/>
+      <c r="AA239" s="3"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -11320,8 +12288,10 @@
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
       <c r="Y240" s="3"/>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z240" s="3"/>
+      <c r="AA240" s="3"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -11347,8 +12317,10 @@
       <c r="W241" s="2"/>
       <c r="X241" s="2"/>
       <c r="Y241" s="3"/>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z241" s="3"/>
+      <c r="AA241" s="3"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -11374,8 +12346,10 @@
       <c r="W242" s="2"/>
       <c r="X242" s="2"/>
       <c r="Y242" s="3"/>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z242" s="3"/>
+      <c r="AA242" s="3"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11401,8 +12375,10 @@
       <c r="W243" s="2"/>
       <c r="X243" s="2"/>
       <c r="Y243" s="3"/>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z243" s="3"/>
+      <c r="AA243" s="3"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -11428,8 +12404,10 @@
       <c r="W244" s="2"/>
       <c r="X244" s="2"/>
       <c r="Y244" s="3"/>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z244" s="3"/>
+      <c r="AA244" s="3"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -11455,8 +12433,10 @@
       <c r="W245" s="2"/>
       <c r="X245" s="2"/>
       <c r="Y245" s="3"/>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z245" s="3"/>
+      <c r="AA245" s="3"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -11482,8 +12462,10 @@
       <c r="W246" s="2"/>
       <c r="X246" s="2"/>
       <c r="Y246" s="3"/>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z246" s="3"/>
+      <c r="AA246" s="3"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -11509,8 +12491,10 @@
       <c r="W247" s="2"/>
       <c r="X247" s="2"/>
       <c r="Y247" s="3"/>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z247" s="3"/>
+      <c r="AA247" s="3"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -11536,8 +12520,10 @@
       <c r="W248" s="2"/>
       <c r="X248" s="2"/>
       <c r="Y248" s="3"/>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z248" s="3"/>
+      <c r="AA248" s="3"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -11563,8 +12549,10 @@
       <c r="W249" s="2"/>
       <c r="X249" s="2"/>
       <c r="Y249" s="3"/>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z249" s="3"/>
+      <c r="AA249" s="3"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -11590,8 +12578,10 @@
       <c r="W250" s="2"/>
       <c r="X250" s="2"/>
       <c r="Y250" s="3"/>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="3"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -11617,8 +12607,10 @@
       <c r="W251" s="2"/>
       <c r="X251" s="2"/>
       <c r="Y251" s="3"/>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z251" s="3"/>
+      <c r="AA251" s="3"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -11644,8 +12636,10 @@
       <c r="W252" s="2"/>
       <c r="X252" s="2"/>
       <c r="Y252" s="3"/>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z252" s="3"/>
+      <c r="AA252" s="3"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -11671,8 +12665,10 @@
       <c r="W253" s="2"/>
       <c r="X253" s="2"/>
       <c r="Y253" s="3"/>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="3"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -11698,8 +12694,10 @@
       <c r="W254" s="2"/>
       <c r="X254" s="2"/>
       <c r="Y254" s="3"/>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z254" s="3"/>
+      <c r="AA254" s="3"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -11725,8 +12723,10 @@
       <c r="W255" s="2"/>
       <c r="X255" s="2"/>
       <c r="Y255" s="3"/>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z255" s="3"/>
+      <c r="AA255" s="3"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -11752,8 +12752,10 @@
       <c r="W256" s="2"/>
       <c r="X256" s="2"/>
       <c r="Y256" s="3"/>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z256" s="3"/>
+      <c r="AA256" s="3"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -11779,8 +12781,10 @@
       <c r="W257" s="2"/>
       <c r="X257" s="2"/>
       <c r="Y257" s="3"/>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="3"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -11806,8 +12810,10 @@
       <c r="W258" s="2"/>
       <c r="X258" s="2"/>
       <c r="Y258" s="3"/>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="3"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -11833,8 +12839,10 @@
       <c r="W259" s="2"/>
       <c r="X259" s="2"/>
       <c r="Y259" s="3"/>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z259" s="3"/>
+      <c r="AA259" s="3"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -11860,8 +12868,10 @@
       <c r="W260" s="2"/>
       <c r="X260" s="2"/>
       <c r="Y260" s="3"/>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z260" s="3"/>
+      <c r="AA260" s="3"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -11887,8 +12897,10 @@
       <c r="W261" s="2"/>
       <c r="X261" s="2"/>
       <c r="Y261" s="3"/>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z261" s="3"/>
+      <c r="AA261" s="3"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -11914,8 +12926,10 @@
       <c r="W262" s="2"/>
       <c r="X262" s="2"/>
       <c r="Y262" s="3"/>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z262" s="3"/>
+      <c r="AA262" s="3"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -11941,8 +12955,10 @@
       <c r="W263" s="2"/>
       <c r="X263" s="2"/>
       <c r="Y263" s="3"/>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z263" s="3"/>
+      <c r="AA263" s="3"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -11968,8 +12984,10 @@
       <c r="W264" s="2"/>
       <c r="X264" s="2"/>
       <c r="Y264" s="3"/>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z264" s="3"/>
+      <c r="AA264" s="3"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -11995,8 +13013,10 @@
       <c r="W265" s="2"/>
       <c r="X265" s="2"/>
       <c r="Y265" s="3"/>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z265" s="3"/>
+      <c r="AA265" s="3"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -12022,8 +13042,10 @@
       <c r="W266" s="2"/>
       <c r="X266" s="2"/>
       <c r="Y266" s="3"/>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z266" s="3"/>
+      <c r="AA266" s="3"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -12049,8 +13071,10 @@
       <c r="W267" s="2"/>
       <c r="X267" s="2"/>
       <c r="Y267" s="3"/>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z267" s="3"/>
+      <c r="AA267" s="3"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -12076,8 +13100,10 @@
       <c r="W268" s="2"/>
       <c r="X268" s="2"/>
       <c r="Y268" s="3"/>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z268" s="3"/>
+      <c r="AA268" s="3"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -12103,8 +13129,10 @@
       <c r="W269" s="2"/>
       <c r="X269" s="2"/>
       <c r="Y269" s="3"/>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z269" s="3"/>
+      <c r="AA269" s="3"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -12130,8 +13158,10 @@
       <c r="W270" s="2"/>
       <c r="X270" s="2"/>
       <c r="Y270" s="3"/>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z270" s="3"/>
+      <c r="AA270" s="3"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -12157,8 +13187,10 @@
       <c r="W271" s="2"/>
       <c r="X271" s="2"/>
       <c r="Y271" s="3"/>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z271" s="3"/>
+      <c r="AA271" s="3"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12184,8 +13216,10 @@
       <c r="W272" s="2"/>
       <c r="X272" s="2"/>
       <c r="Y272" s="3"/>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z272" s="3"/>
+      <c r="AA272" s="3"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12211,8 +13245,10 @@
       <c r="W273" s="2"/>
       <c r="X273" s="2"/>
       <c r="Y273" s="3"/>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z273" s="3"/>
+      <c r="AA273" s="3"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12238,8 +13274,10 @@
       <c r="W274" s="2"/>
       <c r="X274" s="2"/>
       <c r="Y274" s="3"/>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z274" s="3"/>
+      <c r="AA274" s="3"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -12265,8 +13303,10 @@
       <c r="W275" s="2"/>
       <c r="X275" s="2"/>
       <c r="Y275" s="3"/>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z275" s="3"/>
+      <c r="AA275" s="3"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -12292,8 +13332,10 @@
       <c r="W276" s="2"/>
       <c r="X276" s="2"/>
       <c r="Y276" s="3"/>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z276" s="3"/>
+      <c r="AA276" s="3"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -12319,8 +13361,10 @@
       <c r="W277" s="2"/>
       <c r="X277" s="2"/>
       <c r="Y277" s="3"/>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z277" s="3"/>
+      <c r="AA277" s="3"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -12346,8 +13390,10 @@
       <c r="W278" s="2"/>
       <c r="X278" s="2"/>
       <c r="Y278" s="3"/>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z278" s="3"/>
+      <c r="AA278" s="3"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -12373,8 +13419,10 @@
       <c r="W279" s="2"/>
       <c r="X279" s="2"/>
       <c r="Y279" s="3"/>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z279" s="3"/>
+      <c r="AA279" s="3"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -12400,8 +13448,10 @@
       <c r="W280" s="2"/>
       <c r="X280" s="2"/>
       <c r="Y280" s="3"/>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z280" s="3"/>
+      <c r="AA280" s="3"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -12427,8 +13477,10 @@
       <c r="W281" s="2"/>
       <c r="X281" s="2"/>
       <c r="Y281" s="3"/>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z281" s="3"/>
+      <c r="AA281" s="3"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -12454,8 +13506,10 @@
       <c r="W282" s="2"/>
       <c r="X282" s="2"/>
       <c r="Y282" s="3"/>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z282" s="3"/>
+      <c r="AA282" s="3"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -12481,8 +13535,10 @@
       <c r="W283" s="2"/>
       <c r="X283" s="2"/>
       <c r="Y283" s="3"/>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z283" s="3"/>
+      <c r="AA283" s="3"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -12508,8 +13564,10 @@
       <c r="W284" s="2"/>
       <c r="X284" s="2"/>
       <c r="Y284" s="3"/>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z284" s="3"/>
+      <c r="AA284" s="3"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -12535,8 +13593,10 @@
       <c r="W285" s="2"/>
       <c r="X285" s="2"/>
       <c r="Y285" s="3"/>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z285" s="3"/>
+      <c r="AA285" s="3"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -12562,8 +13622,10 @@
       <c r="W286" s="2"/>
       <c r="X286" s="2"/>
       <c r="Y286" s="3"/>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z286" s="3"/>
+      <c r="AA286" s="3"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -12589,8 +13651,10 @@
       <c r="W287" s="2"/>
       <c r="X287" s="2"/>
       <c r="Y287" s="3"/>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z287" s="3"/>
+      <c r="AA287" s="3"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -12616,8 +13680,10 @@
       <c r="W288" s="2"/>
       <c r="X288" s="2"/>
       <c r="Y288" s="3"/>
-    </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z288" s="3"/>
+      <c r="AA288" s="3"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -12643,8 +13709,10 @@
       <c r="W289" s="2"/>
       <c r="X289" s="2"/>
       <c r="Y289" s="3"/>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z289" s="3"/>
+      <c r="AA289" s="3"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -12670,8 +13738,10 @@
       <c r="W290" s="2"/>
       <c r="X290" s="2"/>
       <c r="Y290" s="3"/>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z290" s="3"/>
+      <c r="AA290" s="3"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -12697,8 +13767,10 @@
       <c r="W291" s="2"/>
       <c r="X291" s="2"/>
       <c r="Y291" s="3"/>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z291" s="3"/>
+      <c r="AA291" s="3"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -12724,8 +13796,10 @@
       <c r="W292" s="2"/>
       <c r="X292" s="2"/>
       <c r="Y292" s="3"/>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z292" s="3"/>
+      <c r="AA292" s="3"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -12751,8 +13825,10 @@
       <c r="W293" s="2"/>
       <c r="X293" s="2"/>
       <c r="Y293" s="3"/>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z293" s="3"/>
+      <c r="AA293" s="3"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -12778,8 +13854,10 @@
       <c r="W294" s="2"/>
       <c r="X294" s="2"/>
       <c r="Y294" s="3"/>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z294" s="3"/>
+      <c r="AA294" s="3"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -12805,8 +13883,10 @@
       <c r="W295" s="2"/>
       <c r="X295" s="2"/>
       <c r="Y295" s="3"/>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z295" s="3"/>
+      <c r="AA295" s="3"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -12832,8 +13912,10 @@
       <c r="W296" s="2"/>
       <c r="X296" s="2"/>
       <c r="Y296" s="3"/>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z296" s="3"/>
+      <c r="AA296" s="3"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -12859,8 +13941,10 @@
       <c r="W297" s="2"/>
       <c r="X297" s="2"/>
       <c r="Y297" s="3"/>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z297" s="3"/>
+      <c r="AA297" s="3"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -12886,8 +13970,10 @@
       <c r="W298" s="2"/>
       <c r="X298" s="2"/>
       <c r="Y298" s="3"/>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z298" s="3"/>
+      <c r="AA298" s="3"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -12913,8 +13999,10 @@
       <c r="W299" s="2"/>
       <c r="X299" s="2"/>
       <c r="Y299" s="3"/>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z299" s="3"/>
+      <c r="AA299" s="3"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -12940,8 +14028,10 @@
       <c r="W300" s="2"/>
       <c r="X300" s="2"/>
       <c r="Y300" s="3"/>
-    </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z300" s="3"/>
+      <c r="AA300" s="3"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -12967,8 +14057,10 @@
       <c r="W301" s="2"/>
       <c r="X301" s="2"/>
       <c r="Y301" s="3"/>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z301" s="3"/>
+      <c r="AA301" s="3"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -12994,8 +14086,10 @@
       <c r="W302" s="2"/>
       <c r="X302" s="2"/>
       <c r="Y302" s="3"/>
-    </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z302" s="3"/>
+      <c r="AA302" s="3"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -13021,8 +14115,10 @@
       <c r="W303" s="2"/>
       <c r="X303" s="2"/>
       <c r="Y303" s="3"/>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z303" s="3"/>
+      <c r="AA303" s="3"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -13048,8 +14144,10 @@
       <c r="W304" s="2"/>
       <c r="X304" s="2"/>
       <c r="Y304" s="3"/>
-    </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z304" s="3"/>
+      <c r="AA304" s="3"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -13075,8 +14173,10 @@
       <c r="W305" s="2"/>
       <c r="X305" s="2"/>
       <c r="Y305" s="3"/>
-    </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z305" s="3"/>
+      <c r="AA305" s="3"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -13102,8 +14202,10 @@
       <c r="W306" s="2"/>
       <c r="X306" s="2"/>
       <c r="Y306" s="3"/>
-    </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z306" s="3"/>
+      <c r="AA306" s="3"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -13129,8 +14231,10 @@
       <c r="W307" s="2"/>
       <c r="X307" s="2"/>
       <c r="Y307" s="3"/>
-    </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z307" s="3"/>
+      <c r="AA307" s="3"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -13156,8 +14260,10 @@
       <c r="W308" s="2"/>
       <c r="X308" s="2"/>
       <c r="Y308" s="3"/>
-    </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z308" s="3"/>
+      <c r="AA308" s="3"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -13183,8 +14289,10 @@
       <c r="W309" s="2"/>
       <c r="X309" s="2"/>
       <c r="Y309" s="3"/>
-    </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z309" s="3"/>
+      <c r="AA309" s="3"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -13210,8 +14318,10 @@
       <c r="W310" s="2"/>
       <c r="X310" s="2"/>
       <c r="Y310" s="3"/>
-    </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z310" s="3"/>
+      <c r="AA310" s="3"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -13237,8 +14347,10 @@
       <c r="W311" s="2"/>
       <c r="X311" s="2"/>
       <c r="Y311" s="3"/>
-    </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z311" s="3"/>
+      <c r="AA311" s="3"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -13264,8 +14376,10 @@
       <c r="W312" s="2"/>
       <c r="X312" s="2"/>
       <c r="Y312" s="3"/>
-    </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z312" s="3"/>
+      <c r="AA312" s="3"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -13291,8 +14405,10 @@
       <c r="W313" s="2"/>
       <c r="X313" s="2"/>
       <c r="Y313" s="3"/>
-    </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z313" s="3"/>
+      <c r="AA313" s="3"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -13318,8 +14434,10 @@
       <c r="W314" s="2"/>
       <c r="X314" s="2"/>
       <c r="Y314" s="3"/>
-    </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z314" s="3"/>
+      <c r="AA314" s="3"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -13345,8 +14463,10 @@
       <c r="W315" s="2"/>
       <c r="X315" s="2"/>
       <c r="Y315" s="3"/>
-    </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z315" s="3"/>
+      <c r="AA315" s="3"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -13372,6 +14492,8 @@
       <c r="W316" s="2"/>
       <c r="X316" s="2"/>
       <c r="Y316" s="3"/>
+      <c r="Z316" s="3"/>
+      <c r="AA316" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/eitc_municipal_2022.xlsx
+++ b/input/eitc_municipal_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/Repos/Espacios-Abiertos/eitc-tableau/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34854EF4-B07F-544D-8447-C3B8A37C1FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75A10B-1D51-9741-AD2F-5413A01A701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Municipios</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Crédito por Trabajo - Promedio</t>
+  </si>
+  <si>
+    <t>OTROS*</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="Z79" sqref="Z79"/>
+    <sheetView tabSelected="1" topLeftCell="K48" workbookViewId="0">
+      <selection activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7623,33 +7626,90 @@
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
+      <c r="A80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C80" s="2">
+        <v>75331438</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4237</v>
+      </c>
+      <c r="E80" s="2">
+        <v>539244290</v>
+      </c>
+      <c r="F80" s="2">
+        <v>34497</v>
+      </c>
+      <c r="G80" s="2">
+        <v>93966012</v>
+      </c>
+      <c r="H80" s="2">
+        <v>4963</v>
+      </c>
+      <c r="I80" s="2">
+        <v>686141911</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43410</v>
+      </c>
+      <c r="K80" s="2">
+        <v>644174855</v>
+      </c>
+      <c r="L80" s="2">
+        <v>38161</v>
+      </c>
+      <c r="M80" s="2">
+        <v>100242906</v>
+      </c>
+      <c r="N80" s="2">
+        <v>7700</v>
+      </c>
+      <c r="O80" s="2">
+        <v>35690162</v>
+      </c>
+      <c r="P80" s="2">
+        <v>3828</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>780107923</v>
+      </c>
+      <c r="R80" s="2">
+        <v>48373</v>
+      </c>
+      <c r="S80" s="2">
+        <v>9683930</v>
+      </c>
+      <c r="T80" s="2">
+        <v>4963</v>
+      </c>
+      <c r="U80" s="2">
+        <v>69338977</v>
+      </c>
+      <c r="V80" s="2">
+        <v>43410</v>
+      </c>
+      <c r="W80" s="2">
+        <v>19800</v>
+      </c>
+      <c r="X80" s="2">
+        <v>13138</v>
+      </c>
+      <c r="Y80" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Casados]]+Frame0[[#This Row],[Crédito por Trabajo - Contribuyente Individual]]</f>
+        <v>79022907</v>
+      </c>
+      <c r="Z80" s="3">
+        <f>Frame0[[#This Row],[Planillas Casados - Crédito por Trabajo]]+Frame0[[#This Row],[Planillas Contribuyente Individual - Crédito por Trabajo]]</f>
+        <v>48373</v>
+      </c>
+      <c r="AA80" s="3">
+        <f>Frame0[[#This Row],[Crédito por Trabajo - Total]]/Frame0[[#This Row],[Planillas Total - Crédito por Trabajo]]</f>
+        <v>1633.6160047960639</v>
+      </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
